--- a/WordPress.xlsx
+++ b/WordPress.xlsx
@@ -5,18 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keite\OneDrive\デスクトップ\ノート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keite\Desktop\ノート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABB7AD2-F2B6-464C-B537-6127767F027C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6E6584-3138-47E9-8966-5B8C41620F12}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952" xr2:uid="{23A547DA-F9B8-4989-9B8D-BFB06737F436}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952" activeTab="2" xr2:uid="{23A547DA-F9B8-4989-9B8D-BFB06737F436}"/>
   </bookViews>
   <sheets>
-    <sheet name="用語" sheetId="12" r:id="rId1"/>
-    <sheet name="索引" sheetId="13" r:id="rId2"/>
-    <sheet name="関数" sheetId="14" r:id="rId3"/>
-    <sheet name="Jquery" sheetId="15" r:id="rId4"/>
+    <sheet name="アカウントなど" sheetId="20" r:id="rId1"/>
+    <sheet name="用語" sheetId="12" r:id="rId2"/>
+    <sheet name="索引" sheetId="13" r:id="rId3"/>
+    <sheet name="関数" sheetId="14" r:id="rId4"/>
+    <sheet name="Jquery" sheetId="15" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId6"/>
+    <sheet name="さくら" sheetId="17" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="18" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>テンプレートファイル</t>
   </si>
@@ -243,6 +247,156 @@
       <t>カタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://takayakondo.com/subscriber-no-dashboard/</t>
+  </si>
+  <si>
+    <t>購読者のダッシュボードへのアクセスを禁止する方法・adminbarを非表示にする方法</t>
+    <rPh sb="34" eb="37">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WP Mail SMTPにさくらレンタルサーバーのSMTPを設定してメール送信しよう</t>
+  </si>
+  <si>
+    <t>https://my-util.com/wp-mail-smtp/</t>
+  </si>
+  <si>
+    <t>http://kachiuchi.hatenablog.com/entry/2016/04/28/210158</t>
+  </si>
+  <si>
+    <t>WP-Membersのログインとログアウトをリダイレクトする</t>
+  </si>
+  <si>
+    <t>WP-Membersの新規会員登録時に自動ログインさせて任意のページへリダイレクトさせる方法</t>
+  </si>
+  <si>
+    <t>https://wemo.tech/tips/2300</t>
+  </si>
+  <si>
+    <t>https://itlogs.net/wordpress-develop-3/</t>
+  </si>
+  <si>
+    <t>WordPress Eclipse debug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WordPressサイトをローカル環境に移行</t>
+  </si>
+  <si>
+    <t>https://mr-dear.com/wordpress%E3%82%B5%E3%82%A4%E3%83%88%E3%82%92%E3%83%AD%E3%83%BC%E3%82%AB%E3%83%AB%E7%92%B0%E5%A2%83%E3%81%AB%E7%A7%BB%E8%A1%8C/</t>
+  </si>
+  <si>
+    <t>■wordpressログイン画面</t>
+  </si>
+  <si>
+    <t>http://victoryhorse9.com/wp-admin</t>
+  </si>
+  <si>
+    <t>エリコ</t>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+  </si>
+  <si>
+    <t>victoryhorse9</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>)8KNen@BWeN8d7ZPAC</t>
+  </si>
+  <si>
+    <t>自分</t>
+  </si>
+  <si>
+    <t>yamaoka</t>
+  </si>
+  <si>
+    <t>drstymh0227</t>
+  </si>
+  <si>
+    <t>■WordPress DB</t>
+  </si>
+  <si>
+    <t>https://secure.sakura.ad.jp/rs/db/mysql5/index.php</t>
+  </si>
+  <si>
+    <t>サーバ</t>
+  </si>
+  <si>
+    <t>mysql742.db.sakura.ne.jp</t>
+  </si>
+  <si>
+    <t>navysheep5</t>
+  </si>
+  <si>
+    <t>waioli7331</t>
+  </si>
+  <si>
+    <t>■WordPress FTP</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>navysheep5.sakura.ne.jp</t>
+  </si>
+  <si>
+    <t>waioli7331~_</t>
+  </si>
+  <si>
+    <t>■GROLIA</t>
+  </si>
+  <si>
+    <t>http://mem.glo-ria.com/index.php</t>
+  </si>
+  <si>
+    <t>ID:291682</t>
+  </si>
+  <si>
+    <t>PASS:KMmQME</t>
+  </si>
+  <si>
+    <t>■Slack</t>
+  </si>
+  <si>
+    <t>kayokushitsu.slack.com</t>
+  </si>
+  <si>
+    <t>iida.toru19920227@gmail.com</t>
+  </si>
+  <si>
+    <t>■エリコのアドレス</t>
+  </si>
+  <si>
+    <t>ciyuu26@gmail.com</t>
+  </si>
+  <si>
+    <t>https://secure.sakura.ad.jp/auth/login</t>
+  </si>
+  <si>
+    <t>■さくらインターネット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>How to Send Mail from Localhost XAMPP Using Gmail</t>
+  </si>
+  <si>
+    <t>https://meetanshi.com/blog/send-mail-from-localhost-xampp-using-gmail/</t>
+  </si>
+  <si>
+    <t>Windows版のcurl.exe で SSL通信のエラーの件</t>
+  </si>
+  <si>
+    <t>https://tksm.org/wp/archives/3746</t>
   </si>
 </sst>
 </file>
@@ -426,7 +580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,6 +638,18 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -500,6 +666,324 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>549908</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF98676A-7B9C-4633-A30D-FF456756CB53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="14631668" cy="8230313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>549908</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D193BA-B3CE-4A84-9D90-9A3F807CDC23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8686800"/>
+          <a:ext cx="14631668" cy="8230313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>24245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>549908</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B9C80B9-8106-4559-BAB5-5C20685AC7DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9209809"/>
+          <a:ext cx="14515290" cy="8479695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>107373</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>107373</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 角を丸めた四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{718FF7FF-72C0-47CE-B362-CFB6962AA937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6571904" y="14710064"/>
+          <a:ext cx="2745971" cy="942109"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -26328"/>
+            <a:gd name="adj2" fmla="val -69167"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Defaultp@ss1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>629918</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2944AFE2-3870-46E9-AFFA-312029AC55B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="14631668" cy="8230313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>387927</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>473826</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>166255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB12412-8759-45DE-849A-01560DC2B4CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6373091" y="2757055"/>
+          <a:ext cx="2745971" cy="942109"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -26328"/>
+            <a:gd name="adj2" fmla="val -69167"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Defaultp@ss1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -798,10 +1282,271 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D44EA00-9265-4192-927B-F727BC152F61}">
+  <dimension ref="A1:D71"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="3.19921875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="21"/>
+    </row>
+    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="19"/>
+    </row>
+    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="19"/>
+    </row>
+    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="19"/>
+    </row>
+    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="19"/>
+    </row>
+    <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="22"/>
+    </row>
+    <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="21"/>
+    </row>
+    <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="19"/>
+    </row>
+    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="19"/>
+    </row>
+    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="19"/>
+    </row>
+    <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C58" s="19"/>
+    </row>
+    <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C59" s="19"/>
+    </row>
+    <row r="62" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="19"/>
+    </row>
+    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="19"/>
+    </row>
+    <row r="67" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="19"/>
+    </row>
+    <row r="70" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="19"/>
+    </row>
+    <row r="71" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FC344E-1F18-48CC-BC37-259F41891517}">
   <dimension ref="A1:AX71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1899,11 +2644,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7AE302-DAB6-4C90-9E04-F35A1A49566B}">
-  <dimension ref="B2:B10"/>
+  <dimension ref="B2:B34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AY2" sqref="AY2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1945,19 +2692,107 @@
         <v>8</v>
       </c>
     </row>
+    <row r="12" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{2ADA4E8B-8CE5-4F39-B3BC-3D9F75F22FBD}"/>
     <hyperlink ref="B7" r:id="rId2" xr:uid="{EE19219C-7C41-41BC-AE4B-BE0D217A877B}"/>
     <hyperlink ref="B10" r:id="rId3" xr:uid="{20107C98-4C80-4728-85DA-E44236CA66C7}"/>
+    <hyperlink ref="B13" r:id="rId4" xr:uid="{7FD38F35-11C6-41B4-BE07-1112AF4F3AA4}"/>
+    <hyperlink ref="B16" r:id="rId5" xr:uid="{F16F6B51-D508-4CDA-80B9-BA7CE56BFA4D}"/>
+    <hyperlink ref="B19" r:id="rId6" xr:uid="{0CCC248C-147F-4950-B37D-58DFB34D0500}"/>
+    <hyperlink ref="B22" r:id="rId7" xr:uid="{0FE8D472-0B77-4BA1-B1F4-A3DA8549A6B7}"/>
+    <hyperlink ref="B25" r:id="rId8" xr:uid="{7D8FC783-0787-4B20-9E7F-70500BA1E19A}"/>
+    <hyperlink ref="B28" r:id="rId9" xr:uid="{B2F8D52F-B8F3-4C9D-A83E-6F25E0780BDC}"/>
+    <hyperlink ref="B31" r:id="rId10" xr:uid="{9924A4D7-6AC2-49CD-BF9D-54465E7F48CE}"/>
+    <hyperlink ref="B34" r:id="rId11" xr:uid="{5ED6214F-5002-4D6B-A782-801093C42AA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BC667D-2D94-4CCF-ADA2-9AA21D8C5A7D}">
   <dimension ref="B3:AX71"/>
   <sheetViews>
@@ -3072,7 +3907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1506544F-0938-4D44-94C7-82D2747014EB}">
   <dimension ref="B2:AX71"/>
   <sheetViews>
@@ -4186,4 +5021,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4942E2CA-9EB8-43A3-AA68-ED3550C982CF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D791C144-BF19-4094-ACD5-48EBA6F511FC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19:Z20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E074571-9EEE-4A89-999C-550B13C1CAFF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WordPress.xlsx
+++ b/WordPress.xlsx
@@ -2,25 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keite\Desktop\ノート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6E6584-3138-47E9-8966-5B8C41620F12}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA855FA-5DBB-4EC8-AABD-8AD83AA17798}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952" activeTab="2" xr2:uid="{23A547DA-F9B8-4989-9B8D-BFB06737F436}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウントなど" sheetId="20" r:id="rId1"/>
     <sheet name="用語" sheetId="12" r:id="rId2"/>
-    <sheet name="索引" sheetId="13" r:id="rId3"/>
-    <sheet name="関数" sheetId="14" r:id="rId4"/>
-    <sheet name="Jquery" sheetId="15" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId6"/>
-    <sheet name="さくら" sheetId="17" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="18" r:id="rId8"/>
+    <sheet name="変更ボタン" sheetId="21" r:id="rId3"/>
+    <sheet name="索引" sheetId="13" r:id="rId4"/>
+    <sheet name="関数" sheetId="14" r:id="rId5"/>
+    <sheet name="Jquery" sheetId="15" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId7"/>
+    <sheet name="さくら" sheetId="17" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="18" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -670,6 +671,1096 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FB41CF0-6A7A-488A-8F01-227F61A42706}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="849086" y="239486"/>
+          <a:ext cx="1698171" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>WIN21CD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>取得</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 判断 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55942574-2FC3-4180-91F4-D71BA5A31433}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="566057" y="1611086"/>
+          <a:ext cx="2264229" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>WIN21CD</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>==</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>営業情報設計</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C95F1F-3085-4075-A62F-DD11EA7ED280}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="849086" y="6411686"/>
+          <a:ext cx="1698171" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>変更ボタン活性</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4122B528-407F-4DE3-88DD-B0BFF4B62CC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3396343" y="1839686"/>
+          <a:ext cx="1698171" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レコードクリック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D008312C-BAF2-4C6B-B96F-5F5EE3337F0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3396343" y="3211286"/>
+          <a:ext cx="1698171" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>作成所属取得</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="フローチャート: 判断 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B943B560-7257-4923-ABC6-6FCCF14C14E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3113314" y="4582886"/>
+          <a:ext cx="2264229" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>WIN21CD</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>==</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>作成所属</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FBAFCA7-4A18-4185-92BD-62E722162DA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="6411686"/>
+          <a:ext cx="1698172" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>変更ボタン非活性</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32E6523-43B6-4645-9B68-038E845D47E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3396343" y="6411686"/>
+          <a:ext cx="1698171" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>変更ボタン活性</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5657DA2-DD16-486A-ABCE-9155CB592E86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1698172" y="1153886"/>
+          <a:ext cx="0" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2FFD95-DDE5-4954-8362-B4DD4F0D061C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1698172" y="2982686"/>
+          <a:ext cx="0" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40061EF4-9CA6-4B29-9CAF-B9D8215FA971}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2830286" y="2296886"/>
+          <a:ext cx="566057" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A77B8E-3E3D-4B96-8507-45A8BA104DFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4245429" y="2754086"/>
+          <a:ext cx="0" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B78283-D129-47B2-AD5E-A72CE414579D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4245429" y="4125686"/>
+          <a:ext cx="0" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868DC89B-805F-49F3-83AA-F9818A9C66BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4245429" y="5954486"/>
+          <a:ext cx="0" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2873B5EC-B2A7-4C06-A453-4A402E7085E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5377543" y="5268686"/>
+          <a:ext cx="1415143" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -761,7 +1852,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1271,7 +2362,44 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+      <a:lstStyle>
+        <a:defPPr algn="ctr">
+          <a:defRPr kumimoji="1" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:defRPr>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -1285,7 +2413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D44EA00-9265-4192-927B-F727BC152F61}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
@@ -2645,10 +3773,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2CBAE1-82F4-4E65-A287-C9D0E05EEE81}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7AE302-DAB6-4C90-9E04-F35A1A49566B}">
   <dimension ref="B2:B34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AY2" sqref="AY2"/>
     </sheetView>
   </sheetViews>
@@ -2792,7 +3936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BC667D-2D94-4CCF-ADA2-9AA21D8C5A7D}">
   <dimension ref="B3:AX71"/>
   <sheetViews>
@@ -3907,7 +5051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1506544F-0938-4D44-94C7-82D2747014EB}">
   <dimension ref="B2:AX71"/>
   <sheetViews>
@@ -5023,7 +6167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4942E2CA-9EB8-43A3-AA68-ED3550C982CF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5039,7 +6183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D791C144-BF19-4094-ACD5-48EBA6F511FC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5055,7 +6199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E074571-9EEE-4A89-999C-550B13C1CAFF}">
   <dimension ref="A1"/>
   <sheetViews>
